--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/mismatched_ref/upload.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/mismatched_ref/upload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -41,12 +41,6 @@
     <t>label_for_cases_fra</t>
   </si>
   <si>
-    <t>icon_filepath</t>
-  </si>
-  <si>
-    <t>audio_filepath</t>
-  </si>
-  <si>
     <t>unique_id</t>
   </si>
   <si>
@@ -153,6 +147,18 @@
   </si>
   <si>
     <t>question1/question2-label2</t>
+  </si>
+  <si>
+    <t>icon_filepath_en</t>
+  </si>
+  <si>
+    <t>audio_filepath_en</t>
+  </si>
+  <si>
+    <t>icon_filepath_fra</t>
+  </si>
+  <si>
+    <t>audio_filepath_fra</t>
   </si>
 </sst>
 </file>
@@ -208,8 +214,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -217,9 +227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,13 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,75 +554,82 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -625,10 +648,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -639,30 +662,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -699,201 +722,200 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/mismatched_ref/upload.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/mismatched_ref/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschweers/Documents/commcare-hq/corehq/apps/app_manager/tests/data/bulk_app_translation/mismatched_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B3CA0-31DD-B243-A5A0-71A77067380D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AFCBE6-A47F-1546-BF9E-FD446CEEFBD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>default_en</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>menu1_form1</t>
+  </si>
+  <si>
+    <t>menu_or_form</t>
   </si>
 </sst>
 </file>
@@ -521,56 +521,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -592,38 +592,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -648,97 +648,97 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
